--- a/wishlist_videogiochi.xlsx
+++ b/wishlist_videogiochi.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist'!$A$1:$I$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Wishlist'!$A$1:$I$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Summary'!$A$1:$B$8</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -157,8 +157,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="WishlistTable" displayName="WishlistTable" ref="A1:I88" headerRowCount="1">
-  <autoFilter ref="A1:I88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="WishlistTable" displayName="WishlistTable" ref="A1:I91" headerRowCount="1">
+  <autoFilter ref="A1:I91"/>
   <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Platform"/>
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -753,7 +753,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Tomb Raider</t>
+          <t>SYNC TEST W1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -788,7 +788,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tomb Raider III</t>
+          <t>Tomb Raider</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -818,12 +818,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PS2</t>
+          <t>PS1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>.hack: Mutation</t>
+          <t>Tomb Raider III</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -858,7 +858,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>.hack: Quarantine</t>
+          <t>.hack: Mutation</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -893,7 +893,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ape Escape 3</t>
+          <t>.hack: Quarantine</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -928,7 +928,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Blood Will Tell</t>
+          <t>Ape Escape 3</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Castlevania</t>
+          <t>Blood Will Tell</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -998,7 +998,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Dark Chronicle</t>
+          <t>Castlevania</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Dark Cloud</t>
+          <t>Dark Chronicle</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1068,7 +1068,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Forbidden Siren 2</t>
+          <t>Dark Cloud</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Futurama</t>
+          <t>Forbidden Siren 2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1138,14 +1138,10 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GTA Trilogy</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Versione cartonata</t>
-        </is>
-      </c>
+          <t>Futurama</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1177,10 +1173,14 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Half Life</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>GTA Trilogy</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Versione cartonata</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Haunting Ground</t>
+          <t>Half Life</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1247,7 +1247,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Jak 2</t>
+          <t>Haunting Ground</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Jak 3</t>
+          <t>Jak 2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Killer7</t>
+          <t>Jak 3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kingdom Hearts 2</t>
+          <t>Killer7</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Le avventure di Lupin III: Lupin la morte Zenigata l'amore</t>
+          <t>Kingdom Hearts 2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Lemmings</t>
+          <t>Le avventure di Lupin III: Lupin la morte Zenigata l'amore</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Manhunt</t>
+          <t>Lemmings</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Manhunt 2</t>
+          <t>Manhunt</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1527,7 +1527,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Maximo</t>
+          <t>Manhunt 2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Monster Hunter</t>
+          <t>Maximo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nightmare Before Christmas Oogie's Revenge</t>
+          <t>Monster Hunter</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Onimusha</t>
+          <t>Nightmare Before Christmas Oogie's Revenge</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Onimusha II</t>
+          <t>Onimusha</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Onimusha III</t>
+          <t>Onimusha II</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Project Zero II</t>
+          <t>Onimusha III</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Project Zero III</t>
+          <t>Project Zero II</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -1807,7 +1807,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ratchet &amp; Clank: l'altezza non conta</t>
+          <t>Project Zero III</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Secret Agent Clank</t>
+          <t>Ratchet &amp; Clank: l'altezza non conta</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Silent Hill 2</t>
+          <t>Secret Agent Clank</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Silent Hill 4 The Room</t>
+          <t>Silent Hill 2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Silent Hill: Shattered Memories</t>
+          <t>Silent Hill 4 The Room</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Splatter master</t>
+          <t>Silent Hill: Shattered Memories</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Syberia</t>
+          <t>Splatter master</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Syberia II</t>
+          <t>Syberia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yakuza</t>
+          <t>Syberia II</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yakuza 2</t>
+          <t>Yakuza</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -2152,12 +2152,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PS4</t>
+          <t>PS2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>.hack//GU Last Recode</t>
+          <t>Yakuza 2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Adventure Time</t>
+          <t>.hack//GU Last Recode</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -2227,7 +2227,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Castlevania Requiem</t>
+          <t>Adventure Time</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -2262,14 +2262,10 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Control</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Steelbook edition</t>
-        </is>
-      </c>
+          <t>Castlevania Requiem</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2301,10 +2297,14 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Days gone</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>Control</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Steelbook edition</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>DETROIT become human</t>
+          <t>Days gone</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Doom 2016</t>
+          <t>DETROIT become human</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -2406,7 +2406,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Doom Eternal</t>
+          <t>Doom 2016</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dragon Age: Inquisition</t>
+          <t>Doom Eternal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Dragon Quest XI</t>
+          <t>Dragon Age: Inquisition</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Ecodya</t>
+          <t>Dragon Quest XI</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Elden Ring</t>
+          <t>Ecodya</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Final Fantasz VII Remake</t>
+          <t>Elden Ring</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Fractured but whole</t>
+          <t>Final Fantasz VII Remake</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Ghost song</t>
+          <t>Fractured but whole</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Gran thefth auto V</t>
+          <t>Ghost song</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -2721,7 +2721,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Gravity rush</t>
+          <t>Gran thefth auto V</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ikai</t>
+          <t>Gravity rush</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>It takes two</t>
+          <t>Hollow Knight</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Katamari Damacy Reroll</t>
+          <t>Hotline Miami Collection</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Little nightmares II</t>
+          <t>Ikai</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -2896,7 +2896,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Little nightmares III</t>
+          <t>It takes two</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -2931,14 +2931,10 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Made in Abyss</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Cartonata</t>
-        </is>
-      </c>
+          <t>Katamari Damacy Reroll</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -2970,7 +2966,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Mafia trilogy</t>
+          <t>Little nightmares II</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -3005,7 +3001,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Marvel's Spiderman</t>
+          <t>Little nightmares III</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -3040,10 +3036,14 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Metal Gear Solid: The phantom pain</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>Made in Abyss</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Cartonata</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3075,14 +3075,10 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Monster Hunter: World</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>Cartonata</t>
-        </is>
-      </c>
+          <t>Mafia trilogy</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3114,7 +3110,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Nier replicant</t>
+          <t>Marvel's Spiderman</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -3149,7 +3145,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Nioh 2</t>
+          <t>Metal Gear Solid: The phantom pain</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -3184,10 +3180,14 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>No man's sky</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>Monster Hunter: World</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Cartonata</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3219,7 +3219,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Okami HD</t>
+          <t>Nier replicant</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Outer wilds</t>
+          <t>Nioh 2</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Persona 5</t>
+          <t>No man's sky</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Psychonauts</t>
+          <t>Okami HD</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Psychonauts 2</t>
+          <t>Outer wilds</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sekiro Shadows Die Twice</t>
+          <t>Persona 5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -3429,14 +3429,10 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Song of Horror</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>Deluxe edition</t>
-        </is>
-      </c>
+          <t>Psychonauts</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3468,14 +3464,10 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Sonic Mania</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Cartonata</t>
-        </is>
-      </c>
+          <t>Psychonauts 2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3507,14 +3499,10 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Stray</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Cartoline</t>
-        </is>
-      </c>
+          <t>Sekiro Shadows Die Twice</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3546,10 +3534,14 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>The Binding of Isaac: Afterbirth</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>Song of Horror</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Deluxe edition</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3581,10 +3573,14 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>The Last of Us part II</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>Sonic Mania</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Cartonata</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Medium</t>
@@ -3603,9 +3599,118 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>W0088</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>PS4</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Stray</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Cartoline</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>W0089</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>PS4</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>The Binding of Isaac: Afterbirth</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>W0090</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>PS4</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>The Last of Us part II</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I88"/>
-  <conditionalFormatting sqref="A2:I88">
+  <autoFilter ref="A1:I91"/>
+  <conditionalFormatting sqref="A2:I91">
     <cfRule type="expression" priority="1" dxfId="0" stopIfTrue="0">
       <formula>=$F2="Yes"</formula>
     </cfRule>
@@ -3614,13 +3719,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation sqref="B2:B88" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="B2:B91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PS1,PS2,PS4,DS WII"</formula1>
     </dataValidation>
-    <dataValidation sqref="F2:G88" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F2:G91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation sqref="E2:E88" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="E2:E91" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
